--- a/classfiers/nano/welm/smote/nano_welm_rbf_smote_results.xlsx
+++ b/classfiers/nano/welm/smote/nano_welm_rbf_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.676056338028169</v>
+        <v>0.6623711340206185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3444976076555024</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5106382978723404</v>
+        <v>0.4738955823293172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8574956452715367</v>
+        <v>0.8092978118103746</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6643192488262911</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3254716981132075</v>
+        <v>0.3262032085561498</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4911032028469751</v>
+        <v>0.4919354838709678</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8518449127138072</v>
+        <v>0.8676069518716576</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6995305164319249</v>
+        <v>0.6718346253229974</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3663366336633663</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5362318840579711</v>
+        <v>0.4940239043824701</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8382138437057991</v>
+        <v>0.8610710277376944</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6408450704225352</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2714285714285714</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4269662921348314</v>
+        <v>0.5057471264367815</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8478395061728395</v>
+        <v>0.8294871794871795</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6431924882629108</v>
+        <v>0.6459948320413437</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.3413461538461539</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5128205128205129</v>
+        <v>0.5089605734767025</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8317188055456808</v>
+        <v>0.8081489041684572</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6647887323943662</v>
+        <v>0.6642571725405577</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3305124194135088</v>
+        <v>0.3292445082150964</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4955520379465262</v>
+        <v>0.4949125340992478</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8454225426819327</v>
+        <v>0.8351223750150727</v>
       </c>
     </row>
   </sheetData>
